--- a/biology/Botanique/Parc_Tammsaare/Parc_Tammsaare.xlsx
+++ b/biology/Botanique/Parc_Tammsaare/Parc_Tammsaare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Tammsaare (estonien : Tammsaare park), de 1955 à 1989 Parc du 16 octobre (estonien : 16. Oktoobri park) est un parc de Tallinn, en Estonie. 
 Il est nommé en l'honneur d'Anton Hansen Tammsaare.
@@ -512,10 +524,12 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le Kesklinn, entre le théâtre d'Estonie et le Viru keskus. 
-Le parc Tammsaare est bordé par la rue Pärnu maantee, le Sokos Hotel Viru, le centre commercial Viru keskus, le Boulevard Estonia puiestee, la place du théâtre, le théâtre d'Estonie et la rue Georg Ots[1].
+Le parc Tammsaare est bordé par la rue Pärnu maantee, le Sokos Hotel Viru, le centre commercial Viru keskus, le Boulevard Estonia puiestee, la place du théâtre, le théâtre d'Estonie et la rue Georg Ots.
 </t>
         </is>
       </c>
@@ -544,21 +558,23 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'au milieu du XIXe siècle, cette zone sous le parc était un terrain en friches entouré par les murs de la ville et la construction de bâtiments était restreinte pour des raisons militaires[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'au milieu du XIXe siècle, cette zone sous le parc était un terrain en friches entouré par les murs de la ville et la construction de bâtiments était restreinte pour des raisons militaires. 
 En 1896, le terrain est pavé pour accueillir le nouveau marché de Tallinn qui y est transféré depuis la place de l'hôtel de ville. 
 Entre 1903 et 1905, un grand «théâtre provisoire» en bois se dresse au milieu du parc actuel, c'est une sorte de grange qui montrait des pièces de théâtre et des films.
 Des bâtiments de théâtre permanents ont ensuite été construits. 
 Le premier en 1910 fut d'abord appelé le théâtre allemand de Reval (en), appelé aujourd'hui théâtre dramatique d'Estonie. 
-En 1913, le théâtre d'Estonie y a été inauguré[2].
+En 1913, le théâtre d'Estonie y a été inauguré.
 En 1947, l'architecte paysagiste Harald Heinsaar, conçoit la transformation du lieu en parc. 
-Le marché est démoli en 1948 et transféré vers le marché central actuel[2]. 
+Le marché est démoli en 1948 et transféré vers le marché central actuel. 
 La construction du parc s'achève en 1950 et il a remporté le prix soviétique de l'Estonie.
 De 1955 à 1989, le parc a été nommé parc du 16 octobre[note 1].
 En 1976, le parc est restructuré.
 En 1978, une statue de l'écrivain national Anton Hansen Tammsaare, sculptée par Jaak Soans et Rein Luubia, est érigée au centre du parc.
-En 1981, on y érige la sculpture "Merineid" d'Edgar Viies[2].
+En 1981, on y érige la sculpture "Merineid" d'Edgar Viies.
 </t>
         </is>
       </c>
